--- a/PageObjectModel/Data/BookNowTest.xlsx
+++ b/PageObjectModel/Data/BookNowTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trainings\Selenium\WorkspaceP\PageObjectModel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A40BCB5-EED4-4737-9763-8E620C3DE5D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66991860-6F2C-4580-BB2A-34FAB402CC5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6ADFC3CD-87D8-4BED-AD07-F0295C9D5F97}"/>
   </bookViews>
@@ -53,10 +53,10 @@
     <t>New Delhi</t>
   </si>
   <si>
-    <t>29/09/2020</t>
-  </si>
-  <si>
-    <t>30/09/2020</t>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
